--- a/Res_Trans_Flota_Esc_9.xlsx
+++ b/Res_Trans_Flota_Esc_9.xlsx
@@ -575,7 +575,7 @@
         <v>2026</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -623,7 +623,7 @@
         <v>2029</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.04</v>
+        <v>14.07</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.48</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="6">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="7">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.96</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="9">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.52</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="10">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.81</v>
+        <v>28.78</v>
       </c>
     </row>
     <row r="11">
@@ -949,7 +949,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>64</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1056,13 +1056,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1122,13 +1122,13 @@
         <v>54</v>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" t="n">
         <v>55</v>
@@ -1188,13 +1188,13 @@
         <v>64</v>
       </c>
       <c r="C8" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" t="n">
         <v>65</v>
@@ -1251,7 +1251,7 @@
         <v>64</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1361,7 +1361,7 @@
         <v>64</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1446,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1490,7 +1490,7 @@
         <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1575,13 +1575,13 @@
         <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>23</v>
@@ -1619,13 +1619,13 @@
         <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
@@ -1726,13 +1726,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>12</v>
@@ -1858,13 +1858,13 @@
         <v>64</v>
       </c>
       <c r="C10" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" t="n">
         <v>65</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11509.33304545454</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>506890.7108892727</v>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11509.33304545454</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>337927.1405928484</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11509.33304545454</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>168963.5702964242</v>
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16989.96782900432</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>748267.2398841644</v>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16989.96782900432</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>498844.8265894428</v>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16989.96782900432</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>249422.4132947214</v>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>981033.626255411</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>43206398.69008563</v>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>981033.626255411</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>28804265.79339041</v>
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>981033.626255411</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>14402132.89669521</v>
@@ -2413,7 +2413,7 @@
         <v>2026</v>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -2429,7 +2429,7 @@
         <v>2027</v>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -2445,7 +2445,7 @@
         <v>2028</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -2849,7 +2849,7 @@
         <v>2026</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2897,7 +2897,7 @@
         <v>2029</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3151,7 +3151,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3493,7 +3493,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -11267,7 +11267,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -11381,7 +11381,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -11495,7 +11495,7 @@
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -16017,7 +16017,7 @@
         <v>0</v>
       </c>
       <c r="E263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -16074,7 +16074,7 @@
         <v>0</v>
       </c>
       <c r="E266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -16245,7 +16245,7 @@
         <v>2</v>
       </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -16359,7 +16359,7 @@
         <v>3</v>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -21273,7 +21273,7 @@
         <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -22257,7 +22257,7 @@
         <v>3</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -23241,7 +23241,7 @@
         <v>4</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -69153,7 +69153,7 @@
         <v>0</v>
       </c>
       <c r="F2088" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2089">
@@ -69345,7 +69345,7 @@
         <v>0</v>
       </c>
       <c r="F2096" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2097">
@@ -70113,7 +70113,7 @@
         <v>1</v>
       </c>
       <c r="F2128" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2129">
@@ -70137,7 +70137,7 @@
         <v>1</v>
       </c>
       <c r="F2129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2130">
@@ -70233,7 +70233,7 @@
         <v>1</v>
       </c>
       <c r="F2133" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2134">
@@ -71097,7 +71097,7 @@
         <v>2</v>
       </c>
       <c r="F2169" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2170">
@@ -71121,7 +71121,7 @@
         <v>2</v>
       </c>
       <c r="F2170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2171">
@@ -71217,7 +71217,7 @@
         <v>2</v>
       </c>
       <c r="F2174" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2175">
@@ -72081,7 +72081,7 @@
         <v>3</v>
       </c>
       <c r="F2210" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2211">
@@ -72201,7 +72201,7 @@
         <v>3</v>
       </c>
       <c r="F2215" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2216">
@@ -72225,7 +72225,7 @@
         <v>3</v>
       </c>
       <c r="F2216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2217">
@@ -99930,7 +99930,7 @@
         <v>2026</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>261321.9196326707</v>
       </c>
     </row>
     <row r="4">
@@ -99963,7 +99963,7 @@
         <v>2029</v>
       </c>
       <c r="C6" t="n">
-        <v>252730.3946888765</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Res_Trans_Flota_Esc_9.xlsx
+++ b/Res_Trans_Flota_Esc_9.xlsx
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/Res_Trans_Flota_Esc_9.xlsx
+++ b/Res_Trans_Flota_Esc_9.xlsx
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>

--- a/Res_Trans_Flota_Esc_9.xlsx
+++ b/Res_Trans_Flota_Esc_9.xlsx
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.5</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="9">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.78</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="11">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
